--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3571242.654614017</v>
+        <v>3675268.706474525</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498526</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7661701.643896095</v>
+        <v>7625541.931614539</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>184.644893949213</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>78.78083674901892</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>43.84727566533321</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>5.174118330816003</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>3.182585533882091</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>96.47490797857169</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -947,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>97.56365955710008</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>60.10448623250549</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>75.8368008929141</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>105.30970746416</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>246.5195922753681</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>189.2683236882646</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>194.7521146501823</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>152.2221689967082</v>
+        <v>100.1928033809238</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>9.795251606876045</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>110.0177171766856</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>23.62554568141267</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444106</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>47.49734780285726</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>160.3243999861102</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>19.91555826189058</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>160.2261899043225</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652614</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>74.4191768313308</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>134.4525633547288</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308918</v>
+        <v>46.15319674220957</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>135.5795121770518</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308918</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>61.66004604094908</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>105.8460632289449</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1418.660964416652</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1418.660964416652</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1418.660964416652</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392464</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="Y2" t="n">
-        <v>1418.660964416652</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>821.9838344741147</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C4" t="n">
-        <v>653.0476515462078</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D4" t="n">
-        <v>502.9310121338721</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>355.0179185514789</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>208.1279710535686</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>208.1279710535686</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1513.842048484845</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.424878447885</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="X4" t="n">
-        <v>1224.424878447885</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="Y4" t="n">
-        <v>1003.632299304354</v>
+        <v>646.6939999491682</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1734.047335491682</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C5" t="n">
-        <v>1365.08481855127</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1006.81911994452</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>621.0308673462755</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4565,13 +4567,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2884.252265792695</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2510.786507531615</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>2120.647175555804</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4640,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.7574741064773</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
         <v>163.8377936138381</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>1011.198518080247</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X7" t="n">
-        <v>1011.198518080247</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y7" t="n">
-        <v>790.405938936717</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2124.186667467494</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C8" t="n">
-        <v>1755.224150527082</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D8" t="n">
-        <v>1396.958451920332</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1011.170199322087</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>600.18429453248</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>185.1118443774764</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792696</v>
+        <v>2318.370599567763</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531616</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="Y8" t="n">
-        <v>2510.786507531616</v>
+        <v>1944.904841306683</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.5608581015648</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W10" t="n">
-        <v>1175.001902075335</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X10" t="n">
-        <v>1175.001902075335</v>
+        <v>1033.244753510244</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.2093229318045</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5057,34 +5059,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557276</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278207</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859673</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5282,46 +5284,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>734.6461798836004</v>
       </c>
       <c r="C16" t="n">
-        <v>916.2946447138411</v>
+        <v>565.7099969556936</v>
       </c>
       <c r="D16" t="n">
-        <v>766.1780053015053</v>
+        <v>565.7099969556936</v>
       </c>
       <c r="E16" t="n">
-        <v>618.2649117191122</v>
+        <v>565.7099969556936</v>
       </c>
       <c r="F16" t="n">
-        <v>471.3749642212018</v>
+        <v>418.8200494577832</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K18" t="n">
-        <v>448.1846595309963</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L18" t="n">
-        <v>943.510265746755</v>
+        <v>2913.946970978148</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>3511.3254586047</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>4138.923422159306</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D19" t="n">
-        <v>235.5284942057738</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5716,7 +5718,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5896,25 +5898,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168579</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362654</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075802</v>
@@ -6002,37 +6004,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6056,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>996.5276398439756</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>827.5914569160688</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6181,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
     <row r="26">
@@ -6209,22 +6211,22 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075805</v>
@@ -6245,16 +6247,16 @@
         <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6299,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>113.9333885650331</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,31 +6457,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6488,22 +6490,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>3027.428036214345</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>2858.491853286438</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>2708.375213874102</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>2708.375213874102</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4471.231687421534</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>4182.156460765732</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>3927.471972559845</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>3410.065251624867</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>3189.272672481337</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6691,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6777,22 +6779,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>854.7852236114967</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1205.369871369643</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>4216.547199215648</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>3927.130029178687</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>3699.14047828067</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>3478.34789913714</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,16 +7681,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>297.8113689946113</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
   </sheetData>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>30.95754073885482</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>13.30196929556064</v>
+        <v>65.33133491134505</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>40.32043864788574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>208.7894017452188</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>101.1181252153551</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>19.50758019582707</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>19.6057902776148</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>74.19629618688155</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>45.37941682720847</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.26785128072169</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>103.8640922513198</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>667812.4072616484</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>667812.4072616484</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>667812.4072616484</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>667812.4072616484</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>667812.4072616484</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710689</v>
-      </c>
-      <c r="C2" t="n">
-        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="O2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055057</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710696</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710693</v>
-      </c>
-      <c r="O2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.539624622135307e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551188</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="C4" t="n">
         <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
+        <v>11776.97621680589</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11776.97621680593</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11776.97621680588</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11776.97621680586</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11776.97621680596</v>
+      </c>
+      <c r="J4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
+        <v>11776.97621680588</v>
+      </c>
+      <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="G4" t="n">
+      <c r="M4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
+        <v>11776.97621680588</v>
+      </c>
+      <c r="O4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11776.97621680588</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19767.83547989928</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19767.83547989928</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19767.83547989928</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19767.83547989928</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19767.83547989928</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-747653.0159060741</v>
+        <v>-747653.0159060739</v>
       </c>
       <c r="C6" t="n">
-        <v>581091.7298215184</v>
+        <v>581091.7298215182</v>
       </c>
       <c r="D6" t="n">
         <v>581091.7298215185</v>
       </c>
       <c r="E6" t="n">
-        <v>328477.3018574377</v>
+        <v>328477.3018574384</v>
       </c>
       <c r="F6" t="n">
+        <v>653889.7636647933</v>
+      </c>
+      <c r="G6" t="n">
+        <v>653889.7636647929</v>
+      </c>
+      <c r="H6" t="n">
+        <v>653889.7636647931</v>
+      </c>
+      <c r="I6" t="n">
+        <v>653889.7636647931</v>
+      </c>
+      <c r="J6" t="n">
+        <v>436358.5612675152</v>
+      </c>
+      <c r="K6" t="n">
+        <v>653889.7636647931</v>
+      </c>
+      <c r="L6" t="n">
+        <v>653889.7636647929</v>
+      </c>
+      <c r="M6" t="n">
+        <v>568834.7357292812</v>
+      </c>
+      <c r="N6" t="n">
+        <v>653889.7636647932</v>
+      </c>
+      <c r="O6" t="n">
+        <v>653889.7636647932</v>
+      </c>
+      <c r="P6" t="n">
         <v>653889.7636647928</v>
-      </c>
-      <c r="G6" t="n">
-        <v>653889.7636647932</v>
-      </c>
-      <c r="H6" t="n">
-        <v>653889.7636647932</v>
-      </c>
-      <c r="I6" t="n">
-        <v>653889.763664793</v>
-      </c>
-      <c r="J6" t="n">
-        <v>436358.5612675155</v>
-      </c>
-      <c r="K6" t="n">
-        <v>637630.012043623</v>
-      </c>
-      <c r="L6" t="n">
-        <v>657057.730037255</v>
-      </c>
-      <c r="M6" t="n">
-        <v>572002.702101743</v>
-      </c>
-      <c r="N6" t="n">
-        <v>657057.7300372546</v>
-      </c>
-      <c r="O6" t="n">
-        <v>657057.7300372547</v>
-      </c>
-      <c r="P6" t="n">
-        <v>653889.7636647929</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26747,7 +26749,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>197.2854761230488</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>307.4571019070347</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>100.9077392489876</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>213.4105350212788</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>362.0903062371254</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>310.4011377631397</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>69.68316154152775</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>226.4185121040855</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>218.7709634944064</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>243.931261253253</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>40.00340606122293</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>36.44133170077254</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28141,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28342,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28567,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28849,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29053,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29575,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>746.4857620875804</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>441.0292693655512</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954403</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601594</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860883004</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32788,37 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>560.1612034965815</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669242</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33025,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>233.9389431948339</v>
       </c>
       <c r="N27" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,37 +33262,37 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471805</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,25 +33499,25 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>169.268784767334</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33752,10 +33754,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>397.6543049213403</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33974,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,19 +34207,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>667.8124403339918</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34384,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34445,31 +34447,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>615.1440500042471</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>485.561645212107</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496711</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>418.0271695745632</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>91.80490927281556</v>
       </c>
       <c r="N27" t="n">
-        <v>237.2862717533522</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>342.5164587638472</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531573</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37400,10 +37402,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>263.67989750701</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37622,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>525.6784064119735</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>160.8335108287869</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3675268.706474525</v>
+        <v>3671256.096460532</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>149.0897904115743</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>78.78083674901892</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>86.22131403631856</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.174118330816003</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>3.182585533882091</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>68.11015198958272</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>97.56365955710008</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>38.81718992773182</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>122.2882635917094</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>105.30970746416</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>189.2683236882646</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>194.7521146501823</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>100.1928033809238</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.795251606876045</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>23.62554568141267</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444106</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>47.49734780285726</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>160.3243999861102</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>160.2261899043225</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>74.4191768313308</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>134.4525633547288</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>46.15319674220957</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>135.5795121770518</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="44">
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>105.8460632289449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450752</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450752</v>
+        <v>2588.318918149023</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2198.179586173211</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>646.6939999491682</v>
+        <v>2094.160984027477</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>2007.068747627156</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>1856.95210821482</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>1709.039014632427</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>3014.008748936225</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>3014.008748936225</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>3014.008748936225</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995249</v>
+        <v>2724.591578899265</v>
       </c>
       <c r="X4" t="n">
-        <v>651.9203821015076</v>
+        <v>2496.602028001247</v>
       </c>
       <c r="Y4" t="n">
-        <v>646.6939999491682</v>
+        <v>2275.809448857717</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204828</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4579,16 +4579,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204828</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,19 +4649,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>560.4166776763448</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="W7" t="n">
-        <v>970.0546934046018</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X7" t="n">
-        <v>742.0651425065845</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y7" t="n">
-        <v>742.0651425065845</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>243.0645598847984</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>232.0325137701989</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2318.370599567763</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>1944.904841306683</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1944.904841306683</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>630.8037095364738</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>461.8675266085669</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962312</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484845</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1224.424878447885</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1033.244753510244</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y10" t="n">
-        <v>812.4521743667135</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5032,61 +5032,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191923</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349509</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061502</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557276</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278207</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D13" t="n">
         <v>408.925855915485</v>
@@ -5190,22 +5190,22 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859673</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694706</v>
@@ -5302,28 +5302,28 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191922</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349506</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061502</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556936</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>565.7099969556936</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>565.7099969556936</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>418.8200494577832</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138402</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2913.946970978148</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3511.3254586047</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>4138.923422159306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5718,7 +5718,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>366.9636532421608</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>199.7675539570408</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168579</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362654</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797182</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191923</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349509</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>996.5276398439756</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>827.5914569160688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1398.968683817745</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1178.176104674215</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,49 +6214,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>533.5582272005026</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6454,34 +6454,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6490,22 +6490,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3027.428036214345</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>2858.491853286438</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2708.375213874102</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874102</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376192</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>4471.231687421534</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>4182.156460765732</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3927.471972559845</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3638.054802522885</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3410.065251624867</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3189.272672481337</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1023.721406539404</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>854.7852236114967</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1205.369871369643</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4471.231687421535</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4216.547199215648</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3927.130029178687</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3699.14047828067</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3478.34789913714</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622261</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343192</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2570777219835</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3439841395904</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7490,22 +7490,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>634.927936255316</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1037.368980229086</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>816.5764010855557</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>30.95754073885482</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>65.33133491134505</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7894017452188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>101.1181252153551</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.50758019582707</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.6057902776148</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>74.19629618688155</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>45.37941682720847</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>99.26785128072169</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>10.85445046951733</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="K2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="N2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>3.539624622135307e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551188</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680589</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680593</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="J4" t="n">
         <v>11776.97621680586</v>
       </c>
-      <c r="I4" t="n">
-        <v>11776.97621680596</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="K4" t="n">
-        <v>11776.97621680588</v>
-      </c>
       <c r="L4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-747653.0159060739</v>
+        <v>-747653.015906074</v>
       </c>
       <c r="C6" t="n">
-        <v>581091.7298215182</v>
+        <v>581091.7298215188</v>
       </c>
       <c r="D6" t="n">
-        <v>581091.7298215185</v>
+        <v>581091.7298215189</v>
       </c>
       <c r="E6" t="n">
-        <v>328477.3018574384</v>
+        <v>328129.922603081</v>
       </c>
       <c r="F6" t="n">
-        <v>653889.7636647933</v>
+        <v>653542.3844104359</v>
       </c>
       <c r="G6" t="n">
-        <v>653889.7636647929</v>
+        <v>653542.3844104359</v>
       </c>
       <c r="H6" t="n">
-        <v>653889.7636647931</v>
+        <v>653542.3844104359</v>
       </c>
       <c r="I6" t="n">
-        <v>653889.7636647931</v>
+        <v>653542.384410436</v>
       </c>
       <c r="J6" t="n">
-        <v>436358.5612675152</v>
+        <v>436011.1820131585</v>
       </c>
       <c r="K6" t="n">
-        <v>653889.7636647931</v>
+        <v>653542.384410436</v>
       </c>
       <c r="L6" t="n">
-        <v>653889.7636647929</v>
+        <v>653542.3844104358</v>
       </c>
       <c r="M6" t="n">
-        <v>568834.7357292812</v>
+        <v>568487.3564749243</v>
       </c>
       <c r="N6" t="n">
-        <v>653889.7636647932</v>
+        <v>653542.384410436</v>
       </c>
       <c r="O6" t="n">
-        <v>653889.7636647932</v>
+        <v>653542.384410436</v>
       </c>
       <c r="P6" t="n">
-        <v>653889.7636647928</v>
+        <v>653542.384410436</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26749,7 +26749,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>233.6440512519063</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.4571019070347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>81.02550706230927</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.4105350212788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>362.0903062371254</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>182.8850199693193</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>69.68316154152775</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>213.3204533960962</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>172.3195007956111</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>243.931261253253</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>36.44133170077254</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>3.126388037344441e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>746.4857620875804</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954403</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601594</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,28 +32548,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>189.0011860883004</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>560.1612034965815</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,13 +32812,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669242</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,40 +33022,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948339</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>473.8581708471805</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,28 +33496,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>169.268784767334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>397.6543049213403</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34210,25 +34210,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>667.8124403339918</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>615.1440500042471</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>485.561645212107</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802852</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>57.65947400496711</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>418.0271695745632</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924747</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281556</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>342.5164587638472</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>27.13475084531573</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>525.6784064119735</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3671256.096460532</v>
+        <v>3673016.626763317</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149.0897904115743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>212.2389816846936</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>86.22131403631856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>120.4263234899699</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>164.31824187395</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>68.11015198958272</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>38.81718992773182</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>199.8294367171075</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>122.2882635917094</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1378,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>69.18922512558713</v>
       </c>
       <c r="T13" t="n">
-        <v>154.0370966050008</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2134,13 +2134,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599951</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>45.16086499484859</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>2102.480899540949</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1733.518382600537</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1375.252683993787</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>989.4644313955425</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>578.478526605935</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410103</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X2" t="n">
-        <v>2588.318918149023</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y2" t="n">
-        <v>2198.179586173211</v>
+        <v>2489.080739605071</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2094.160984027477</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>2007.068747627156</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>1856.95210821482</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>1709.039014632427</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1562.149067134517</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134517</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134517</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366699</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366699</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>3014.008748936225</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>3014.008748936225</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V4" t="n">
-        <v>3014.008748936225</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W4" t="n">
-        <v>2724.591578899265</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="X4" t="n">
-        <v>2496.602028001247</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>2275.809448857717</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1100.545392232225</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>1100.545392232225</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>689.5594874426172</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>274.4870372876136</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4570,13 +4570,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3146.517019813456</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3146.517019813456</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2793.748364543341</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>2420.282606282261</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.1346335501037</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
         <v>679.1346335501037</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1598.982398458852</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1309.565228421891</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1081.575677523874</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>860.7830983803434</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4783,31 +4783,31 @@
         <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744059</v>
+        <v>1023.012981614817</v>
       </c>
       <c r="E8" t="n">
-        <v>654.0504646744059</v>
+        <v>1023.012981614817</v>
       </c>
       <c r="F8" t="n">
-        <v>243.0645598847984</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>232.0325137701989</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4816,16 +4816,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
         <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>935.9190763285891</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.126497185059</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>577.8620388433919</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C13" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2377.074977392799</v>
       </c>
       <c r="T13" t="n">
-        <v>2041.469518613829</v>
+        <v>2157.473512415741</v>
       </c>
       <c r="U13" t="n">
-        <v>1752.394291958027</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="V13" t="n">
-        <v>1497.70980375214</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.292633715179</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X13" t="n">
-        <v>980.3030828171618</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y13" t="n">
-        <v>759.5105036736317</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5518,16 +5518,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,7 +6235,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6363,25 +6363,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6682,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,22 +6712,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,16 +6916,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7614,7 +7614,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>111.8370608760575</v>
       </c>
       <c r="T13" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194223</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>173.4237883572462</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>83.27114962944307</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
   </sheetData>
@@ -26319,13 +26319,13 @@
         <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="F2" t="n">
-        <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055058</v>
@@ -26334,28 +26334,28 @@
         <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="K2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680576</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26441,16 +26441,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="M4" t="n">
         <v>11776.97621680578</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26527,43 +26527,43 @@
         <v>581091.7298215188</v>
       </c>
       <c r="D6" t="n">
-        <v>581091.7298215189</v>
+        <v>581091.7298215185</v>
       </c>
       <c r="E6" t="n">
-        <v>328129.922603081</v>
+        <v>328442.5639320021</v>
       </c>
       <c r="F6" t="n">
-        <v>653542.3844104359</v>
+        <v>653855.0257393573</v>
       </c>
       <c r="G6" t="n">
-        <v>653542.3844104359</v>
+        <v>653855.0257393575</v>
       </c>
       <c r="H6" t="n">
-        <v>653542.3844104359</v>
+        <v>653855.0257393572</v>
       </c>
       <c r="I6" t="n">
-        <v>653542.384410436</v>
+        <v>653855.0257393572</v>
       </c>
       <c r="J6" t="n">
-        <v>436011.1820131585</v>
+        <v>436323.8233420798</v>
       </c>
       <c r="K6" t="n">
-        <v>653542.384410436</v>
+        <v>653855.0257393575</v>
       </c>
       <c r="L6" t="n">
-        <v>653542.3844104358</v>
+        <v>653855.0257393573</v>
       </c>
       <c r="M6" t="n">
-        <v>568487.3564749243</v>
+        <v>568799.9978038452</v>
       </c>
       <c r="N6" t="n">
-        <v>653542.384410436</v>
+        <v>653855.0257393572</v>
       </c>
       <c r="O6" t="n">
-        <v>653542.384410436</v>
+        <v>653855.0257393571</v>
       </c>
       <c r="P6" t="n">
-        <v>653542.384410436</v>
+        <v>653855.0257393572</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.6440512519063</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>198.6827439687598</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>81.02550706230927</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>105.2833318990672</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>130.2895225133705</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>182.8850199693193</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>213.3204533960962</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>207.0466090246039</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>172.3195007956111</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276458</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-8.444841250298201e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
